--- a/document/基本設計書.xlsx
+++ b/document/基本設計書.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\azusato\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F2A1E-FCED-45ED-9DAF-0F9CC8E88987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F189C4E-AADD-47D8-A46F-584988E0A12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構成図" sheetId="1" r:id="rId1"/>
-    <sheet name="画面1" sheetId="2" r:id="rId2"/>
-    <sheet name="画面2" sheetId="3" r:id="rId3"/>
+    <sheet name="共通画面" sheetId="5" r:id="rId2"/>
+    <sheet name="画面1" sheetId="2" r:id="rId3"/>
+    <sheet name="画面2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1"/>
@@ -167,13 +168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンテンツ：手紙</t>
-    <rPh sb="6" eb="8">
-      <t>テガミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スクロールしても固定</t>
     <rPh sb="8" eb="10">
       <t>コテイ</t>
@@ -187,6 +181,23 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面2</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツ：手紙+写真</t>
+    <rPh sb="6" eb="8">
+      <t>テガミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -457,10 +468,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DD7894-EA07-4418-B34C-DEFCE80C2978}"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03024CB-400C-4B20-B11F-07AA8954B593}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,10 +528,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BE9DD6-9E6F-4EA5-8C70-63A7602E5730}"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40707A54-EBD5-4937-951D-A2B08949D059}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -571,22 +582,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2612C5-6809-48DC-94B7-6366937FEAF3}"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335AE4C1-FC0A-4068-A926-A7BF3BFA8629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -594,8 +605,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8934450" y="495300"/>
-          <a:ext cx="6162675" cy="4067175"/>
+          <a:off x="8934451" y="733425"/>
+          <a:ext cx="3886200" cy="4067175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,10 +660,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0C2F6D-8811-46DC-BF98-950582BFAE45}"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57768BE0-D27A-4A1E-9044-3EE4C6158DAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -668,7 +679,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="962025"/>
+          <a:off x="733425" y="1200150"/>
           <a:ext cx="6086475" cy="2190240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -693,10 +704,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B289830-4C59-49F3-8B91-F51A9393FD2B}"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BB7C4D-492A-42F1-B8C7-17F383A19EDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,10 +780,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFAE19F-487B-4457-B6A2-D9E3C7CA67DA}"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2E276D-BE13-46E8-98C5-653425127816}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -813,10 +824,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E88912-A6FB-47C8-B5CC-662054E1A799}"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448B9A7C-E41A-4C0A-B9DE-D9AF3A553A18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -840,6 +851,552 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDAC652-0536-4F1A-88B0-069131A9F7A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5591175" y="104775"/>
+          <a:ext cx="1866900" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2AC771-91FC-47B4-9B06-2F0DA6A82F61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="5807916"/>
+          <a:ext cx="6124575" cy="335573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE226B7F-2642-4DE7-B351-0D3CE1B2D542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="733425"/>
+          <a:ext cx="3895725" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA471B19-6D50-44F7-9476-E9EA107DDE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8982075" y="857250"/>
+          <a:ext cx="1200150" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ロゴ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428512</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E80363-9BBD-4ECA-BF97-509300CB4C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11182350" y="762000"/>
+          <a:ext cx="904762" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>380926</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560CC5BF-5D4D-44E3-A9A0-94B14E813C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12134850" y="752475"/>
+          <a:ext cx="590476" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64B540E-82DF-4E02-91FC-793C90B93321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="1200150"/>
+          <a:ext cx="3857625" cy="2190240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>237989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A2E695-A0B9-49BE-8703-28112B3A3593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943976" y="4426791"/>
+          <a:ext cx="3790950" cy="335573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BE9DD6-9E6F-4EA5-8C70-63A7602E5730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="733425"/>
+          <a:ext cx="6162675" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2612C5-6809-48DC-94B7-6366937FEAF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="495300"/>
+          <a:ext cx="6162675" cy="4067175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -907,76 +1464,223 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF38750B-B170-4C30-B558-6A221BF8DFB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="2200275"/>
+          <a:ext cx="3019425" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>動画</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4EA4A2C-33DE-4052-942D-92AF2E1A52D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5591175" y="104775"/>
-          <a:ext cx="1866900" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1EDC3F-4B45-4384-9757-52BA71914551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="733425"/>
+          <a:ext cx="6162675" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BD68F9-3B03-45E4-BBE8-4619CE56642C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="733425"/>
+          <a:ext cx="6162675" cy="4067175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>92916</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190364</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>332863</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913BEA30-55F3-4FC6-BCBB-2210321FA1EC}"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F3B452-093F-4599-BCC3-DC8068E6BAC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -985,15 +1689,59 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="5807916"/>
-          <a:ext cx="6124575" cy="335573"/>
+          <a:off x="1724025" y="2200274"/>
+          <a:ext cx="4095238" cy="3142737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561463</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4016CA0-1F97-400C-A0FD-C9F676413506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="1276349"/>
+          <a:ext cx="4095238" cy="3142737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1326,7 +2074,7 @@
         <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1371,11 +2119,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAD6E9C-632D-46EC-B2FE-63A7B2D9B462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE11843-A251-4FD0-A93F-C7D2793D5A11}">
   <dimension ref="B1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1385,7 +2133,7 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
@@ -1410,27 +2158,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D54492-1D71-4025-A54D-96679289F120}">
-  <dimension ref="B1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAD6E9C-632D-46EC-B2FE-63A7B2D9B462}">
+  <dimension ref="B1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763D046D-3D84-464E-9BEE-A31274BF690A}">
+  <dimension ref="B1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/基本設計書.xlsx
+++ b/document/基本設計書.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\azusato\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F189C4E-AADD-47D8-A46F-584988E0A12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D438372C-0692-47BF-89C3-7938D82C719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構成図" sheetId="1" r:id="rId1"/>
     <sheet name="共通画面" sheetId="5" r:id="rId2"/>
-    <sheet name="画面1" sheetId="2" r:id="rId3"/>
-    <sheet name="画面2" sheetId="6" r:id="rId4"/>
+    <sheet name="言語" sheetId="7" r:id="rId3"/>
+    <sheet name="メイン" sheetId="6" r:id="rId4"/>
+    <sheet name="お祝い" sheetId="2" r:id="rId5"/>
+    <sheet name="ログインモーダル" sheetId="8" r:id="rId6"/>
+    <sheet name="ログインした後(追加開発)" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1"/>
@@ -168,13 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクロールしても固定</t>
-    <rPh sb="8" eb="10">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ただ、データベース要らない気がします。</t>
     <rPh sb="9" eb="10">
       <t>イ</t>
@@ -185,19 +181,329 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面2</t>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アイコンはbootstrapを使用</t>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.該当した画面の場合</t>
+    <rPh sb="2" eb="4">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のように黒いアイコンに変えて現在のページがわかるように</t>
+    <rPh sb="4" eb="5">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=&gt; コントローラーでapplication.propertiesに登録した値を返す。</t>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考URL：https://www.markuptag.com/responsive-login-form-design-with-social-login-buttons/</t>
     <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考URL：https://mdbootstrap.com/docs/standard/extended/login/</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面で入力したユーザとパスワードは事前に登録することで</t>
+    <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンテンツ：手紙+写真</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインした場合</t>
     <rPh sb="6" eb="8">
-      <t>テガミ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シャシン</t>
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=&gt;リスト画面を表示</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしていない場合</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=&gt;入力画面</t>
+    <rPh sb="2" eb="6">
+      <t>ニュウリョクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト画面</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力・修正画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お祝い</t>
+  </si>
+  <si>
+    <t>お祝いリスト</t>
+    <rPh sb="1" eb="2">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*自分が登録したのしか見れないです。</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考URL:</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://summernote.org/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未ログインした場合、作成した内容は修正・削除ができません。</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pathパラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装方法</t>
+    <rPh sb="0" eb="4">
+      <t>ジッソウホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost:8080
+localhost:8080/ko
+localhost:8080/jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.hostの後、
+ko</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>,jpがある場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;
+ 1.localeをko,jpに設定。
+ 2.セッションにko及びjpを設定。
+ない場合-&gt;
+1.UserのHeaderによってlocaleを設定。
+2.セッションにko及びjpを設定。
+</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API呼び出す時</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost:8080/api/login
+localhost:8080/ko/api/login
+localhost:8080/jp/api/login
+=&gt;コントローラー設定
+RequestMapping : {/*/api},{api}</t>
+    <rPh sb="90" eb="92">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message.properties
+message_ko.propertiesで対応</t>
+    <rPh sb="41" eb="43">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +542,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -260,15 +588,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,14 +798,82 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C71A5E6-34A6-4CCB-99B8-9848083A8756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1181101"/>
+          <a:ext cx="6143625" cy="2124074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>写真</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Banner</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -517,13 +927,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -581,16 +991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -605,7 +1015,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8934451" y="733425"/>
+          <a:off x="12372976" y="885825"/>
           <a:ext cx="3886200" cy="4067175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -645,25 +1055,101 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BB7C4D-492A-42F1-B8C7-17F383A19EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="857250"/>
+          <a:ext cx="1200150" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ロゴ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>56640</xdr:rowOff>
+      <xdr:colOff>657151</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57768BE0-D27A-4A1E-9044-3EE4C6158DAE}"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448B9A7C-E41A-4C0A-B9DE-D9AF3A553A18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -679,8 +1165,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="1200150"/>
-          <a:ext cx="6086475" cy="2190240"/>
+          <a:off x="6238875" y="752475"/>
+          <a:ext cx="590476" cy="409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -689,101 +1175,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BB7C4D-492A-42F1-B8C7-17F383A19EDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="819150" y="857250"/>
-          <a:ext cx="1200150" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ロゴ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文字</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>92916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>18937</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180929</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2E276D-BE13-46E8-98C5-653425127816}"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2AC771-91FC-47B4-9B06-2F0DA6A82F61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,147 +1209,6 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5286375" y="762000"/>
-          <a:ext cx="904762" cy="371429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>657151</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>209499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448B9A7C-E41A-4C0A-B9DE-D9AF3A553A18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6238875" y="752475"/>
-          <a:ext cx="590476" cy="409524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDAC652-0536-4F1A-88B0-069131A9F7A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5591175" y="104775"/>
-          <a:ext cx="1866900" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>92916</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190364</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2AC771-91FC-47B4-9B06-2F0DA6A82F61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="704850" y="5807916"/>
           <a:ext cx="6124575" cy="335573"/>
         </a:xfrm>
@@ -952,16 +1221,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -976,7 +1245,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8934450" y="733425"/>
+          <a:off x="12372975" y="885825"/>
           <a:ext cx="3895725" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1012,16 +1281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1036,7 +1305,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8982075" y="857250"/>
+          <a:off x="12420600" y="1009650"/>
           <a:ext cx="1200150" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1088,23 +1357,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>428512</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180929</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E80363-9BBD-4ECA-BF97-509300CB4C6A}"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A2E695-A0B9-49BE-8703-28112B3A3593}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,8 +1389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11182350" y="762000"/>
-          <a:ext cx="904762" cy="371429"/>
+          <a:off x="12382501" y="4579191"/>
+          <a:ext cx="3790950" cy="335573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,25 +1399,161 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2D5283-849E-430E-844E-0C9A2036A68F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14535150" y="1457325"/>
+          <a:ext cx="1657350" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューアイコン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374708B9-FC73-4B08-BB07-73EF0E2FAA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12363451" y="1323976"/>
+          <a:ext cx="3867150" cy="2124074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>写真</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Banner</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>380926</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>209499</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190443</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560CC5BF-5D4D-44E3-A9A0-94B14E813C82}"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC32953-FD2B-43AD-A6BD-7BDA7325EEC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,8 +1569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12134850" y="752475"/>
-          <a:ext cx="590476" cy="409524"/>
+          <a:off x="4533900" y="1000125"/>
+          <a:ext cx="457143" cy="380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,118 +1579,171 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647672</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A254801-75D1-4F79-80D1-25A46D6740D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4762472" y="352425"/>
+          <a:ext cx="819178" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD9B7AE-1DD7-492A-A0CC-E3034D1A2B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="19050"/>
+          <a:ext cx="1076326" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に遷移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>56640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64B540E-82DF-4E02-91FC-793C90B93321}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8943975" y="1200150"/>
-          <a:ext cx="3857625" cy="2190240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140541</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>237989</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A2E695-A0B9-49BE-8703-28112B3A3593}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8943976" y="4426791"/>
-          <a:ext cx="3790950" cy="335573"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BE9DD6-9E6F-4EA5-8C70-63A7602E5730}"/>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294DF446-2D87-4ED3-8856-46EE49665312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,8 +1751,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="733425"/>
-          <a:ext cx="6162675" cy="5457825"/>
+          <a:off x="3933825" y="962025"/>
+          <a:ext cx="2295525" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1302,7 +1760,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1335,23 +1793,167 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>614363</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B57546-A144-4D19-81BE-8BEC8E77148B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5414963" y="561975"/>
+          <a:ext cx="2338387" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495251</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF0CCEF-EA58-40F0-894A-C1B6CDC12138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="428625"/>
+          <a:ext cx="390476" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>199970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF49D435-FB4B-4402-B480-DD14633C684D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="990600"/>
+          <a:ext cx="390476" cy="399995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2612C5-6809-48DC-94B7-6366937FEAF3}"/>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1874CE-2C2D-46F1-B79B-93513F3627BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,8 +1961,975 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8934450" y="495300"/>
-          <a:ext cx="6162675" cy="4067175"/>
+          <a:off x="3295650" y="66675"/>
+          <a:ext cx="1695450" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に遷移</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メイン画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128563</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E48FD58-D7AD-4C9C-920D-57D72EFB6089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="419100"/>
+          <a:ext cx="99988" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28523</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4A323E-16F7-4333-9D43-24BDC081A70E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="1019175"/>
+          <a:ext cx="419048" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26E0E40-889C-48CA-99EA-9397CDCE4213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5267325" y="1400175"/>
+          <a:ext cx="3048000" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C229F2CC-295D-487A-B47C-B943AC817D84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248649" y="1857375"/>
+          <a:ext cx="2047875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログインモーダル呼び出し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600027</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089AF34A-577B-47AF-BDAE-347A320E3A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="1019175"/>
+          <a:ext cx="380952" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409551</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25906AE6-9738-46D7-A53F-CF3DB752BE7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="1"/>
+          <a:endCxn id="46" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5895951" y="1590633"/>
+          <a:ext cx="1914548" cy="1919330"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6832228F-C72C-460B-A9C6-EE2C82E17AC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810499" y="3086100"/>
+          <a:ext cx="2619376" cy="847726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&amp;&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理者の場合のみ表示</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリックしドロップダウンのメニューが現れる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>486716</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA05B7A7-3E50-4264-A748-C674AD4DD318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="1038225"/>
+          <a:ext cx="1210616" cy="295181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>567208</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92743D28-36F7-4836-ACE6-95EB0E027B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="2"/>
+          <a:endCxn id="57" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="504825"/>
+          <a:ext cx="1033933" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rectangle 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A99A3B-CAB0-424B-B352-221D9B624784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="152400"/>
+          <a:ext cx="990600" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>音楽再生</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>131325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B9C245-2075-4465-97EB-A8A21657DAE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13982701" y="1428750"/>
+          <a:ext cx="550424" cy="323779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E06D9C-1864-4916-BFFD-98E821D730BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="76" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6553200" y="1676400"/>
+          <a:ext cx="1462087" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9BB462-6886-4128-ACCB-CF56C17C6154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991349" y="4724400"/>
+          <a:ext cx="2047875" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリックすると</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>한국어 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>韓国語</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日本語が出る。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細説明は「言語」シートで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1EDC3F-4B45-4384-9757-52BA71914551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="733425"/>
+          <a:ext cx="6162675" cy="5457825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1399,25 +2968,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323338</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F3B452-093F-4599-BCC3-DC8068E6BAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="533399"/>
+          <a:ext cx="4095238" cy="3142737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF5E2A-72C4-4615-B2F2-C4C9DBF090D3}"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F60623-91EC-4FF5-8EF3-8ECC4ED076FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,8 +3038,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2009775" y="3590925"/>
-          <a:ext cx="3019425" cy="1704975"/>
+          <a:off x="1647824" y="3981450"/>
+          <a:ext cx="4162425" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1462,69 +3075,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF38750B-B170-4C30-B558-6A221BF8DFB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10477500" y="2200275"/>
-          <a:ext cx="3019425" cy="1704975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>動画</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1534,13 +3084,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1548,7 +3098,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1EDC3F-4B45-4384-9757-52BA71914551}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BE9DD6-9E6F-4EA5-8C70-63A7602E5730}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,23 +3148,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BD68F9-3B03-45E4-BBE8-4619CE56642C}"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008CA247-6685-432B-9201-D01460406759}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,8 +3172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8934450" y="733425"/>
-          <a:ext cx="6162675" cy="4067175"/>
+          <a:off x="8905875" y="1924050"/>
+          <a:ext cx="6162675" cy="5457825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,25 +3212,85 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BADC7CF-C3CA-44C0-8B38-930DF1C801A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610725" y="2876550"/>
+          <a:ext cx="4762500" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>332863</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104261</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>94824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F3B452-093F-4599-BCC3-DC8068E6BAC8}"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCBC955-8D16-4975-9DD8-80E16182DFA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,8 +3306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1724025" y="2200274"/>
-          <a:ext cx="4095238" cy="3142737"/>
+          <a:off x="9620251" y="3590925"/>
+          <a:ext cx="4886324" cy="3409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1706,25 +3316,754 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>56937</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA9B09E-FB41-4201-B5EF-494732EC3564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14506575" y="4667250"/>
+          <a:ext cx="1333500" cy="628437"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4F3AB1-C387-4B5E-85FC-4489718213B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12906376" y="7029449"/>
+          <a:ext cx="647700" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F670A1-EE72-4DD1-8BEA-C1D7DAA9BD8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13858876" y="7029449"/>
+          <a:ext cx="647700" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411F1EB5-87BA-4A42-8AAE-FCD82EA01511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13696950" y="7381874"/>
+          <a:ext cx="485776" cy="1343026"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157ACA2D-15FC-46CD-99F1-0E89E6FAEFC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13230226" y="7381874"/>
+          <a:ext cx="514349" cy="1371601"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E03D7C8-C797-4954-B793-0E4A82766152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13030200" y="8782050"/>
+          <a:ext cx="2781300" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モーダル呼び出し。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本当に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>~~</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>しますか？みたいな</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD999240-BF21-4F4C-846C-9DA489A8821A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="1"/>
+          <a:endCxn id="23" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14506576" y="7172326"/>
+          <a:ext cx="1428749" cy="33336"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD11499-E7C8-4B5F-9B8F-05DABEC1089D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15935325" y="6981826"/>
+          <a:ext cx="962025" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>修正のみ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286F31E1-4344-4508-BA47-FC42BDE26739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15087600" y="1419225"/>
+          <a:ext cx="1314450" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未ログインのみ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041D42C2-FA62-410F-A383-7BD7E0A66FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11677650" y="1576388"/>
+          <a:ext cx="3409950" cy="557212"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B170B312-24A4-4826-999D-7627B59E643C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610725" y="3810000"/>
+          <a:ext cx="4762500" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B00ECA1-3AE5-4500-BD6B-37A9BE6E6F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524251" y="4267199"/>
+          <a:ext cx="647700" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>561463</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>132836</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447464</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4016CA0-1F97-400C-A0FD-C9F676413506}"/>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C404B01-A4AB-44E1-8E02-6C5A19DB5511}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,21 +4072,836 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10182225" y="1276349"/>
-          <a:ext cx="4095238" cy="3142737"/>
+          <a:off x="819150" y="4219575"/>
+          <a:ext cx="1685714" cy="409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D429C7AF-3DE5-4C34-8197-D73DF374EEEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="4067175"/>
+          <a:ext cx="1047750" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>まで</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>参考</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>URL:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>https://getbootstrap.com/docs/5.0/components/pagination/</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447464</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6143A9-C9A3-4C4B-9B19-8D2889EDA6BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="1"/>
+          <a:endCxn id="45" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2504864" y="4424337"/>
+          <a:ext cx="4181686" cy="309588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8EC0C7-A94D-4A0B-BC49-6A1A5C705C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="2486025"/>
+          <a:ext cx="1047750" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1.10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>個まで</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトルをクリックすると修正に遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30ECFBB0-0B20-45DC-9E09-B45A165335C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2219325" y="3152775"/>
+          <a:ext cx="3448050" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2487DDC7-A5B7-40FC-BBF4-00F81774CB99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="590550"/>
+          <a:ext cx="2038350" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理者の場合全部見れる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA602BE-5EBA-4E58-8A42-26F0A08047C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3405188" y="1190625"/>
+          <a:ext cx="3481387" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495605CC-354E-4B3C-9317-BE11EA4FB1B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="3225" b="16239"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="876300"/>
+          <a:ext cx="2847975" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>218780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2404A90-1095-4504-BF37-5D5143F73A34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="2143125"/>
+          <a:ext cx="2914650" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98BF8BC-5D66-4AA9-B967-D87F3D82C480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="3276600"/>
+          <a:ext cx="2705100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>kakao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B05515-8110-49D9-8416-348F5A3F7A2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="3771900"/>
+          <a:ext cx="2705100" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Line </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEC3124-8ACC-449F-BAA8-880435E9B031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3429000" y="3476625"/>
+          <a:ext cx="1876425" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACED2FA-2E78-4B08-BBA4-3B21BA34A0A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3314700" y="3981450"/>
+          <a:ext cx="1990725" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5961EA4-A4B4-4BBF-88F2-C0A6CDE7E15F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5305425" y="3562350"/>
+          <a:ext cx="4381500" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一番最後開発時間があれば、開発</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>もし、間に合わなかったら、会員加入ページ追加簡単に</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>、パスワード、ネーム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2018,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2074,7 +5228,7 @@
         <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2120,32 +5274,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE11843-A251-4FD0-A93F-C7D2793D5A11}">
-  <dimension ref="B1:N3"/>
+  <dimension ref="B3:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="S5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2158,34 +5324,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAD6E9C-632D-46EC-B2FE-63A7B2D9B462}">
-  <dimension ref="B1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D05C27E-2F75-45FF-991F-E510421C00C1}">
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>23</v>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>22</v>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
+    <row r="4" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="150" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763D046D-3D84-464E-9BEE-A31274BF690A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2193,38 +5402,166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763D046D-3D84-464E-9BEE-A31274BF690A}">
-  <dimension ref="B1:N3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAD6E9C-632D-46EC-B2FE-63A7B2D9B462}">
+  <dimension ref="B1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="N11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="14:24" x14ac:dyDescent="0.4">
+      <c r="N18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="14:24" x14ac:dyDescent="0.4">
+      <c r="W23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="X23" r:id="rId1" xr:uid="{BCA3FFF0-F42D-4C1E-8D6F-58D48DA4EF2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5942BF-D94E-446A-8312-5A2A18E283DD}">
+  <dimension ref="B2:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB3F213-25E0-4FFF-AC0E-273FFEA2F083}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/基本設計書.xlsx
+++ b/document/基本設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\azusato\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D438372C-0692-47BF-89C3-7938D82C719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234FA171-29AE-4305-93D0-AA0B217D2961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構成図" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1"/>
@@ -505,6 +505,49 @@
     <rPh sb="41" eb="43">
       <t>タイオウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>celebration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interceptor =&gt; posthandle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -799,13 +842,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -867,13 +910,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -927,13 +970,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -993,13 +1036,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1059,13 +1102,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1135,13 +1178,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657151</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>209499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1179,13 +1222,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>92916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>190364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1223,13 +1266,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1283,13 +1326,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1359,13 +1402,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>54816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1403,13 +1446,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1471,14 +1514,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1493,8 +1536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12363451" y="1323976"/>
-          <a:ext cx="3867150" cy="2124074"/>
+          <a:off x="12363451" y="1800226"/>
+          <a:ext cx="3867150" cy="1714499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1539,13 +1582,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190443</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1589,7 +1632,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1729,13 +1772,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1801,7 +1844,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1895,13 +1938,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323801</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>199970</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2041,7 +2084,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>128563</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2094,13 +2137,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>28523</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2138,13 +2181,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2194,13 +2237,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2274,13 +2317,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600027</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>161883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2318,13 +2361,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409551</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>161883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2377,13 +2420,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2472,13 +2515,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>486716</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>142781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2522,7 +2565,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>567208</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2655,13 +2698,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>131325</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2699,13 +2742,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2758,13 +2801,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2892,6 +2935,132 @@
             <a:t>詳細説明は「言語」シートで</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD01170-89FC-46D2-ADCA-4A3C3981DE94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="3819525"/>
+          <a:ext cx="6143625" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページネーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C45FF91-6D4F-4C62-89BC-11EC1D42F11D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12372975" y="3524250"/>
+          <a:ext cx="3876675" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページネーム</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5172,7 +5341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -5274,10 +5443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE11843-A251-4FD0-A93F-C7D2793D5A11}">
-  <dimension ref="B3:V5"/>
+  <dimension ref="B3:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5308,11 +5477,69 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="S5" t="s">
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="M9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
